--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -25,79 +25,496 @@
     <t>Категория</t>
   </si>
   <si>
-    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
-  </si>
-  <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
-    <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
-  </si>
-  <si>
-    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
-  </si>
-  <si>
-    <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
-  </si>
-  <si>
-    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
-  </si>
-  <si>
-    <t>Новости шоу-бизнеса. Павел Прилучный устроил разборку в центре Москвы, на шоу "Ледниковый период" снова замены и другие</t>
-  </si>
-  <si>
-    <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
-  </si>
-  <si>
-    <t>Первая ночная неконференция от Слёрма «IT-голики» — для всех, кто в айти</t>
-  </si>
-  <si>
-    <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
-  </si>
-  <si>
-    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
-  </si>
-  <si>
-    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
-  </si>
-  <si>
-    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
-  </si>
-  <si>
-    <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
-  </si>
-  <si>
-    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
-  </si>
-  <si>
-    <t>Развлечения и юмор</t>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Блоги</t>
+  </si>
+  <si>
+    <t>Новости и СМИ</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Бизнес и стартапы</t>
+  </si>
+  <si>
+    <t>Путешествия</t>
+  </si>
+  <si>
+    <t>Маркетинг, PR, реклама</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
+  </si>
+  <si>
+    <t>Политика</t>
+  </si>
+  <si>
+    <t>Искусство</t>
+  </si>
+  <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Образование и познавательное</t>
   </si>
   <si>
     <t>Спорт</t>
   </si>
   <si>
-    <t>Технологии</t>
-  </si>
-  <si>
-    <t>Новости и СМИ</t>
-  </si>
-  <si>
-    <t>Криптовалюты</t>
-  </si>
-  <si>
     <t>Мода и красота</t>
   </si>
   <si>
+    <t>Здоровье и медицина</t>
+  </si>
+  <si>
+    <t>Картинки и фото</t>
+  </si>
+  <si>
+    <t>Софт и приложения</t>
+  </si>
+  <si>
+    <t>Видео и фильмы</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
     <t>Игры</t>
   </si>
   <si>
+    <t>Еда и кулинария</t>
+  </si>
+  <si>
+    <t>Цитаты</t>
+  </si>
+  <si>
     <t>Финансы</t>
   </si>
   <si>
-    <t>Здоровье и медицина</t>
-  </si>
-  <si>
-    <t>Софт и приложения</t>
+    <t>Шоубиз</t>
   </si>
 </sst>
 </file>
@@ -455,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -495,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -509,13 +926,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -523,13 +940,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2212</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -537,13 +954,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2222312</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -551,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -565,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -579,13 +996,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -593,13 +1010,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -607,13 +1024,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -621,13 +1038,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -635,13 +1052,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -649,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -663,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -677,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -691,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -705,13 +1122,1721 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B19">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>127</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>109</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>140</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>113</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>76</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>120</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>35</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>133</v>
+      </c>
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>108</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>51</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>106</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>102</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>84</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>117</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -25,9 +25,15 @@
     <t>Категория</t>
   </si>
   <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
     <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
   </si>
   <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
     <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
   </si>
   <si>
@@ -37,10 +43,10 @@
     <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
   </si>
   <si>
-    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
-  </si>
-  <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
   </si>
   <si>
     <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
@@ -55,15 +61,9 @@
     <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
   </si>
   <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
-  </si>
-  <si>
     <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
   </si>
   <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
     <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
   </si>
   <si>
@@ -76,27 +76,27 @@
     <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
   </si>
   <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
     <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
   </si>
   <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
     <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
   </si>
   <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
     <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
   </si>
   <si>
@@ -109,30 +109,30 @@
     <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
   </si>
   <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
     <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
   </si>
   <si>
     <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
   </si>
   <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
     <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
   </si>
   <si>
     <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
   </si>
   <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
     <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
   </si>
   <si>
-    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
-  </si>
-  <si>
-    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
-  </si>
-  <si>
     <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
   </si>
   <si>
@@ -145,301 +145,301 @@
     <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
   </si>
   <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
     <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
   </si>
   <si>
     <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
   </si>
   <si>
-    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
-  </si>
-  <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
   </si>
   <si>
     <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
   </si>
   <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
     <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
   </si>
   <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
   </si>
   <si>
     <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
   </si>
   <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
-  </si>
-  <si>
-    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
     <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
   </si>
   <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
     <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
   </si>
   <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
-  </si>
-  <si>
     <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
   </si>
   <si>
     <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
   </si>
   <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
     <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
   </si>
   <si>
     <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
   </si>
   <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
   </si>
   <si>
     <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
   </si>
   <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
   </si>
   <si>
     <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
   </si>
   <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
   </si>
   <si>
     <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
   </si>
   <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
     <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
   </si>
   <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
-  </si>
-  <si>
-    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
   </si>
   <si>
     <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
   </si>
   <si>
-    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
   </si>
   <si>
     <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
   </si>
   <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
     <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
   </si>
   <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
     <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
   </si>
   <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
-  </si>
-  <si>
     <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
   </si>
   <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
     <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
   </si>
   <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
-  </si>
-  <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
   </si>
   <si>
     <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
   </si>
   <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
   </si>
   <si>
     <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
   </si>
   <si>
-    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
-  </si>
-  <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
   </si>
   <si>
     <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
   </si>
   <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
     <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
   </si>
   <si>
-    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
-  </si>
-  <si>
-    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
-  </si>
-  <si>
     <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
   </si>
   <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
     <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
   </si>
   <si>
-    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
   </si>
   <si>
     <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
   </si>
   <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
     <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
   </si>
   <si>
     <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
   </si>
   <si>
-    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
   </si>
   <si>
     <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
   </si>
   <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
     <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
   </si>
   <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
   </si>
   <si>
     <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
   </si>
   <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
   </si>
   <si>
     <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
   </si>
   <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
   </si>
   <si>
     <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
-  </si>
-  <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
-  </si>
-  <si>
-    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
   </si>
   <si>
     <t>Блоги</t>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1136,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1164,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1192,7 +1192,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -1206,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -1304,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -1360,7 +1360,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1388,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
@@ -1458,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
@@ -1472,7 +1472,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -1486,7 +1486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -1500,7 +1500,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
@@ -1514,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -1528,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -1542,7 +1542,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
@@ -1556,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -1570,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -1584,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -1598,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -1626,7 +1626,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
@@ -1640,7 +1640,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -1654,7 +1654,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
@@ -1682,7 +1682,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
@@ -1696,7 +1696,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
@@ -1724,7 +1724,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
@@ -1738,7 +1738,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -1752,7 +1752,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -1794,7 +1794,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -1808,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -1822,7 +1822,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
@@ -1836,7 +1836,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
@@ -1850,7 +1850,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
@@ -1864,7 +1864,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -1878,7 +1878,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -1892,7 +1892,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
@@ -1920,7 +1920,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -1934,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
@@ -1962,7 +1962,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -1976,7 +1976,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
@@ -1990,7 +1990,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
@@ -2018,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
@@ -2032,7 +2032,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
@@ -2046,7 +2046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
@@ -2060,7 +2060,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
@@ -2074,7 +2074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
@@ -2088,7 +2088,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -2102,7 +2102,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
@@ -2130,7 +2130,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -2144,7 +2144,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -2172,7 +2172,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
@@ -2186,7 +2186,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
@@ -2200,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
@@ -2214,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
@@ -2228,7 +2228,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
@@ -2242,7 +2242,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
@@ -2270,7 +2270,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
@@ -2284,7 +2284,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
@@ -2298,7 +2298,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
@@ -2312,7 +2312,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
@@ -2326,7 +2326,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
@@ -2340,7 +2340,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
@@ -2354,7 +2354,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
@@ -2368,7 +2368,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
@@ -2382,7 +2382,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
@@ -2396,7 +2396,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
@@ -2410,7 +2410,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
@@ -2438,7 +2438,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
@@ -2452,7 +2452,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
@@ -2466,7 +2466,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
@@ -2494,7 +2494,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
@@ -2508,7 +2508,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
@@ -2522,7 +2522,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
@@ -2536,7 +2536,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
@@ -2550,7 +2550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
@@ -2564,7 +2564,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
@@ -2578,7 +2578,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
@@ -2592,7 +2592,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
@@ -2606,7 +2606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
@@ -2620,7 +2620,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
@@ -2634,7 +2634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
@@ -2648,7 +2648,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
@@ -2662,7 +2662,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
@@ -2676,7 +2676,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
@@ -2690,7 +2690,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
@@ -2704,7 +2704,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
@@ -2718,7 +2718,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
@@ -2732,7 +2732,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
@@ -2746,7 +2746,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
@@ -2760,7 +2760,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
@@ -2774,7 +2774,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
@@ -2788,7 +2788,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
@@ -2802,7 +2802,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
@@ -2816,7 +2816,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
@@ -2830,7 +2830,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>

--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -25,88 +25,91 @@
     <t>Категория</t>
   </si>
   <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
     <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
   </si>
   <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
     <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
   </si>
   <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
-  </si>
-  <si>
-    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
-  </si>
-  <si>
-    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
-  </si>
-  <si>
-    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
   </si>
   <si>
     <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
   </si>
   <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
-  </si>
-  <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
   </si>
   <si>
     <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
   </si>
   <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
-  </si>
-  <si>
     <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
   </si>
   <si>
-    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
   </si>
   <si>
     <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
   </si>
   <si>
-    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
-  </si>
-  <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
   </si>
   <si>
     <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
   </si>
   <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
   </si>
   <si>
     <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
   </si>
   <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
     <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
   </si>
   <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
   </si>
   <si>
     <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
@@ -115,55 +118,58 @@
     <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
   </si>
   <si>
-    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
-  </si>
-  <si>
     <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
   </si>
   <si>
     <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
   </si>
   <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
     <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
   </si>
   <si>
     <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
   </si>
   <si>
-    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
   </si>
   <si>
     <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
   </si>
   <si>
-    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
-  </si>
-  <si>
-    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
-  </si>
-  <si>
     <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
   </si>
   <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
     <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
   </si>
   <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
-    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
-  </si>
-  <si>
-    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
   </si>
   <si>
     <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
   </si>
   <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
   </si>
   <si>
     <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
@@ -175,85 +181,82 @@
     <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
   </si>
   <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
   </si>
   <si>
     <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
   </si>
   <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
     <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
   </si>
   <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
   </si>
   <si>
     <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
   </si>
   <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
   </si>
   <si>
     <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
   </si>
   <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
-    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
   </si>
   <si>
     <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
   </si>
   <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
   </si>
   <si>
     <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
   </si>
   <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
   </si>
   <si>
     <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
   </si>
   <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
-  </si>
-  <si>
     <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
   </si>
   <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
   </si>
   <si>
     <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
@@ -265,87 +268,84 @@
     <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
   </si>
   <si>
-    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
   </si>
   <si>
     <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
   </si>
   <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
     <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
   </si>
   <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
     <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
   </si>
   <si>
     <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
   </si>
   <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
     <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
   </si>
   <si>
-    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
-  </si>
-  <si>
-    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
   </si>
   <si>
     <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
   </si>
   <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
     <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
   </si>
   <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
-  </si>
-  <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
   </si>
   <si>
     <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
   </si>
   <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
-    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
-  </si>
-  <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
-  </si>
-  <si>
     <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
   </si>
   <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
     <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
   </si>
   <si>
     <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
   </si>
   <si>
-    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
     <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
   </si>
   <si>
@@ -355,25 +355,37 @@
     <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
   </si>
   <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
     <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
   </si>
   <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
   </si>
   <si>
     <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
   </si>
   <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
   </si>
   <si>
     <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
@@ -382,61 +394,49 @@
     <t>Главные новости дня: важные политические решения и международные соглашения.</t>
   </si>
   <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
     <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
   </si>
   <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
   </si>
   <si>
     <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
   </si>
   <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
   </si>
   <si>
     <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
   </si>
   <si>
-    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
     <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
   </si>
   <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
     <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
   </si>
   <si>
     <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1094,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1108,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1136,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1164,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1206,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1248,7 +1248,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1276,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -1304,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -1360,7 +1360,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1388,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
@@ -1402,7 +1402,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1416,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
@@ -1430,7 +1430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -1458,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
@@ -1486,7 +1486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -1500,7 +1500,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
@@ -1514,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -1528,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -1542,7 +1542,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
@@ -1556,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -1570,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -1584,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -1598,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -1626,7 +1626,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
@@ -1640,7 +1640,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
@@ -1696,7 +1696,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
@@ -1710,7 +1710,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
@@ -1724,7 +1724,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
@@ -1738,7 +1738,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -1752,7 +1752,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -1766,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
@@ -1780,7 +1780,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -1794,7 +1794,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -1808,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -1836,7 +1836,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
@@ -1850,7 +1850,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
@@ -1906,7 +1906,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
@@ -1920,7 +1920,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -1934,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
@@ -1962,7 +1962,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -1976,7 +1976,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
@@ -1990,7 +1990,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
@@ -2018,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
@@ -2032,7 +2032,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
@@ -2046,7 +2046,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
@@ -2060,7 +2060,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
@@ -2074,7 +2074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
@@ -2088,7 +2088,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -2130,7 +2130,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -2158,7 +2158,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
@@ -2172,7 +2172,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
@@ -2186,7 +2186,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
@@ -2200,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
@@ -2228,7 +2228,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
@@ -2242,7 +2242,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
@@ -2256,7 +2256,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
@@ -2270,7 +2270,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
@@ -2284,7 +2284,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
@@ -2312,7 +2312,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
@@ -2340,7 +2340,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
@@ -2354,7 +2354,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
@@ -2368,7 +2368,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
@@ -2382,7 +2382,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
@@ -2438,7 +2438,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
@@ -2452,7 +2452,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
@@ -2466,7 +2466,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
@@ -2508,7 +2508,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
@@ -2522,7 +2522,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
@@ -2536,7 +2536,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
@@ -2550,7 +2550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
@@ -2578,7 +2578,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
@@ -2592,7 +2592,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
@@ -2606,7 +2606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
@@ -2620,7 +2620,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
@@ -2634,7 +2634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
@@ -2662,7 +2662,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
@@ -2676,7 +2676,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
@@ -2690,7 +2690,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
@@ -2704,7 +2704,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
@@ -2718,7 +2718,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
@@ -2732,7 +2732,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
@@ -2746,7 +2746,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
@@ -2760,7 +2760,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
@@ -2774,7 +2774,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
@@ -2788,7 +2788,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
@@ -2802,7 +2802,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
@@ -2816,7 +2816,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>

--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -25,382 +25,418 @@
     <t>Категория</t>
   </si>
   <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
     <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
   </si>
   <si>
-    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
-  </si>
-  <si>
-    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
   </si>
   <si>
     <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
   </si>
   <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
-  </si>
-  <si>
-    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
-  </si>
-  <si>
-    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
-  </si>
-  <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
   </si>
   <si>
     <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
   </si>
   <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
-  </si>
-  <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
-  </si>
-  <si>
-    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
-  </si>
-  <si>
-    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
-  </si>
-  <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
-  </si>
-  <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
   </si>
   <si>
     <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
   </si>
   <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
     <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
   </si>
   <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
-  </si>
-  <si>
-    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
-  </si>
-  <si>
-    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
-  </si>
-  <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
-  </si>
-  <si>
-    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
-  </si>
-  <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
-    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
-  </si>
-  <si>
-    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
-  </si>
-  <si>
-    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
-  </si>
-  <si>
-    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
-  </si>
-  <si>
-    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
-  </si>
-  <si>
-    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
-  </si>
-  <si>
-    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
-  </si>
-  <si>
-    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
-  </si>
-  <si>
-    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
-  </si>
-  <si>
-    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
-  </si>
-  <si>
-    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
-  </si>
-  <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
-    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
-  </si>
-  <si>
-    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
-  </si>
-  <si>
-    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
   </si>
   <si>
     <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
   </si>
   <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
-  </si>
-  <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
-    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
-  </si>
-  <si>
-    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
-  </si>
-  <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
-  </si>
-  <si>
-    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
-  </si>
-  <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
-  </si>
-  <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
-  </si>
-  <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
-  </si>
-  <si>
-    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
-  </si>
-  <si>
-    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
-  </si>
-  <si>
-    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
-  </si>
-  <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
-  </si>
-  <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
-    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
-  </si>
-  <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
-    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
-  </si>
-  <si>
-    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
-  </si>
-  <si>
-    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
-  </si>
-  <si>
-    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
-  </si>
-  <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
-  </si>
-  <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
-  </si>
-  <si>
-    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
-  </si>
-  <si>
-    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
-  </si>
-  <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
-  </si>
-  <si>
-    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
-  </si>
-  <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
-    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
-  </si>
-  <si>
-    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
-    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
-  </si>
-  <si>
-    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
-  </si>
-  <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
-  </si>
-  <si>
-    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
-  </si>
-  <si>
-    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
-  </si>
-  <si>
-    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
-  </si>
-  <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
-  </si>
-  <si>
-    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
-  </si>
-  <si>
-    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
-  </si>
-  <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
-  </si>
-  <si>
-    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
-  </si>
-  <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
-  </si>
-  <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
-  </si>
-  <si>
-    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
-  </si>
-  <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях.</t>
   </si>
   <si>
     <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
@@ -409,45 +445,15 @@
     <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
   </si>
   <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
-  </si>
-  <si>
-    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
-  </si>
-  <si>
     <t>Блоги</t>
   </si>
   <si>
     <t>Новости и СМИ</t>
   </si>
   <si>
+    <t>Развлечения и юмор</t>
+  </si>
+  <si>
     <t>Технологии</t>
   </si>
   <si>
@@ -509,6 +515,9 @@
   </si>
   <si>
     <t>Цитаты</t>
+  </si>
+  <si>
+    <t>Рукоделие</t>
   </si>
   <si>
     <t>Финансы</t>
@@ -872,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -912,13 +921,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -926,13 +935,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -940,13 +949,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -954,13 +963,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -968,13 +977,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -982,13 +991,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -996,13 +1005,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1010,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1024,13 +1033,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1038,13 +1047,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1052,13 +1061,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1066,13 +1075,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1080,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1094,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1108,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1122,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1136,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1150,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1164,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1178,13 +1187,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1192,13 +1201,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1206,13 +1215,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1220,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1234,13 +1243,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1248,13 +1257,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1268,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1276,13 +1285,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1290,13 +1299,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1304,13 +1313,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1318,13 +1327,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1332,13 +1341,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1346,13 +1355,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1360,13 +1369,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1374,13 +1383,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1388,13 +1397,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1402,13 +1411,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1416,13 +1425,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1430,13 +1439,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1444,13 +1453,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1458,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1472,13 +1481,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1486,13 +1495,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1500,13 +1509,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1514,13 +1523,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1528,13 +1537,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1542,13 +1551,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1556,13 +1565,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1570,13 +1579,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1584,13 +1593,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1598,13 +1607,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1612,13 +1621,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1626,7 +1635,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
@@ -1640,13 +1649,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1654,13 +1663,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1668,13 +1677,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1682,13 +1691,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1696,13 +1705,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1710,7 +1719,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
@@ -1724,7 +1733,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
@@ -1738,7 +1747,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -1752,13 +1761,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1766,13 +1775,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1780,13 +1789,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1794,7 +1803,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -1808,13 +1817,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1822,13 +1831,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1836,13 +1845,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1850,7 +1859,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
@@ -1864,13 +1873,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1878,13 +1887,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1892,13 +1901,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1906,13 +1915,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1920,13 +1929,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1934,13 +1943,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1948,13 +1957,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1962,13 +1971,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1976,13 +1985,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1990,13 +1999,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2004,13 +2013,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2018,13 +2027,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2032,7 +2041,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
@@ -2046,7 +2055,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
@@ -2060,7 +2069,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
@@ -2074,7 +2083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
@@ -2088,13 +2097,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2102,13 +2111,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2116,7 +2125,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
@@ -2130,7 +2139,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -2144,7 +2153,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -2158,13 +2167,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2172,7 +2181,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
@@ -2186,7 +2195,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
@@ -2200,7 +2209,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
@@ -2214,7 +2223,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
@@ -2228,13 +2237,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2242,7 +2251,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
@@ -2256,7 +2265,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
@@ -2270,13 +2279,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2284,13 +2293,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2298,13 +2307,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2312,13 +2321,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2326,13 +2335,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2340,13 +2349,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2354,13 +2363,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2368,13 +2377,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2382,13 +2391,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2396,13 +2405,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2410,13 +2419,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2424,13 +2433,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2438,13 +2447,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2452,13 +2461,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2466,13 +2475,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2480,13 +2489,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2494,13 +2503,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2508,13 +2517,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2522,13 +2531,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2536,13 +2545,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2550,13 +2559,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2564,13 +2573,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2578,13 +2587,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2592,13 +2601,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2606,13 +2615,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2626,7 +2635,7 @@
         <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2634,13 +2643,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2648,13 +2657,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2662,13 +2671,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2676,13 +2685,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2690,13 +2699,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2704,13 +2713,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2718,13 +2727,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2732,13 +2741,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2746,13 +2755,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2760,13 +2769,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2780,7 +2789,7 @@
         <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2788,13 +2797,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2802,13 +2811,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2816,13 +2825,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2830,13 +2839,27 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>136</v>
+      </c>
+      <c r="C141" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -25,12 +25,15 @@
     <t>Категория</t>
   </si>
   <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
     <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
   </si>
   <si>
-    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
-  </si>
-  <si>
     <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
   </si>
   <si>
@@ -40,7 +43,22 @@
     <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
   </si>
   <si>
-    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
   </si>
   <si>
     <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
@@ -49,81 +67,63 @@
     <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
   </si>
   <si>
-    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
-  </si>
-  <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
-  </si>
-  <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
-  </si>
-  <si>
-    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
   </si>
   <si>
     <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
   </si>
   <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
   </si>
   <si>
     <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
   </si>
   <si>
-    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
   </si>
   <si>
     <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
   </si>
   <si>
-    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
-  </si>
-  <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
   </si>
   <si>
     <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
   </si>
   <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
-    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
   </si>
   <si>
     <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
   </si>
   <si>
-    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
-  </si>
-  <si>
     <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
   </si>
   <si>
@@ -133,13 +133,16 @@
     <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
   </si>
   <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
     <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
   </si>
   <si>
     <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
   </si>
   <si>
-    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
   </si>
   <si>
     <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
@@ -148,142 +151,142 @@
     <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
   </si>
   <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
     <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
   </si>
   <si>
     <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
   </si>
   <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
     <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
   </si>
   <si>
     <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
   </si>
   <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
     <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
   </si>
   <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
     <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
   </si>
   <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
     <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
   </si>
   <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
     <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
   </si>
   <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
     <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
   </si>
   <si>
-    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
   </si>
   <si>
     <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
   </si>
   <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
-  </si>
-  <si>
     <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
   </si>
   <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
     <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
   </si>
   <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
   </si>
   <si>
     <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
   </si>
   <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
     <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
   </si>
   <si>
-    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
-  </si>
-  <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
   </si>
   <si>
     <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
   </si>
   <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
     <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
   </si>
   <si>
     <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
   </si>
   <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
-    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
   </si>
   <si>
     <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
@@ -295,7 +298,7 @@
     <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
   </si>
   <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
   </si>
   <si>
     <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
@@ -304,24 +307,24 @@
     <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
   </si>
   <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
     <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
   </si>
   <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
   </si>
   <si>
     <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
   </si>
   <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
     <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
   </si>
   <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
     <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
   </si>
   <si>
@@ -331,115 +334,112 @@
     <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
   </si>
   <si>
-    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
-  </si>
-  <si>
     <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
   </si>
   <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
     <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
   </si>
   <si>
     <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
   </si>
   <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
   </si>
   <si>
     <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
   </si>
   <si>
-    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
   </si>
   <si>
     <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
   </si>
   <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
-  </si>
-  <si>
     <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
   </si>
   <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
     <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
   </si>
   <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
-  </si>
-  <si>
     <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
   </si>
   <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
     <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
   </si>
   <si>
     <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
   </si>
   <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
-  </si>
-  <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
   </si>
   <si>
     <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
   </si>
   <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
     <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
   </si>
   <si>
-    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
-  </si>
-  <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
   </si>
   <si>
     <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
   </si>
   <si>
     <t>Блоги</t>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -940,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1094,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1108,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1136,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1150,7 +1150,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1164,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1206,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1220,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -1248,7 +1248,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -1276,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1290,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -1304,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1318,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -1332,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -1402,7 +1402,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1416,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
@@ -1430,7 +1430,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -1444,7 +1444,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -1458,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
@@ -1472,7 +1472,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -1514,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -1528,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -1542,7 +1542,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
@@ -1556,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -1570,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -1584,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -1598,7 +1598,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -1640,7 +1640,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -1668,7 +1668,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
@@ -1682,7 +1682,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
@@ -1710,7 +1710,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
@@ -1724,7 +1724,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
@@ -1738,7 +1738,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -1752,7 +1752,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -1766,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
@@ -1780,7 +1780,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -1794,7 +1794,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
@@ -1808,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -1822,7 +1822,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
@@ -1836,7 +1836,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
@@ -1864,7 +1864,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -1878,7 +1878,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -1892,7 +1892,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
@@ -1906,7 +1906,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
@@ -1920,7 +1920,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -1934,7 +1934,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
@@ -1962,7 +1962,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -1976,7 +1976,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
@@ -1990,7 +1990,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
@@ -2004,7 +2004,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
@@ -2018,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
@@ -2032,7 +2032,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
@@ -2060,7 +2060,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
@@ -2074,7 +2074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
@@ -2088,7 +2088,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -2102,7 +2102,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
@@ -2116,7 +2116,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
@@ -2130,7 +2130,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
@@ -2144,7 +2144,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -2158,7 +2158,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
@@ -2172,7 +2172,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
@@ -2186,7 +2186,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
@@ -2200,7 +2200,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
@@ -2214,7 +2214,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
@@ -2228,7 +2228,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
@@ -2242,7 +2242,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
@@ -2256,7 +2256,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
@@ -2284,7 +2284,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
@@ -2298,7 +2298,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
@@ -2312,7 +2312,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
@@ -2326,7 +2326,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
@@ -2354,7 +2354,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
@@ -2368,7 +2368,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
@@ -2382,7 +2382,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
@@ -2396,7 +2396,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
@@ -2410,7 +2410,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
@@ -2424,7 +2424,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
@@ -2438,7 +2438,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
@@ -2466,7 +2466,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
@@ -2480,7 +2480,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
@@ -2508,7 +2508,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
@@ -2536,7 +2536,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
@@ -2550,7 +2550,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
@@ -2564,7 +2564,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
@@ -2592,7 +2592,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
@@ -2606,7 +2606,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
@@ -2620,7 +2620,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
@@ -2634,7 +2634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
@@ -2648,7 +2648,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
@@ -2662,7 +2662,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
@@ -2676,7 +2676,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
@@ -2690,7 +2690,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
@@ -2704,7 +2704,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
@@ -2718,7 +2718,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
@@ -2732,7 +2732,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
@@ -2746,7 +2746,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
@@ -2760,7 +2760,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
@@ -2774,7 +2774,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
@@ -2788,7 +2788,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
@@ -2802,7 +2802,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
@@ -2816,7 +2816,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
@@ -2830,7 +2830,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>

--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -25,429 +25,423 @@
     <t>Категория</t>
   </si>
   <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
     <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
   </si>
   <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
-  </si>
-  <si>
-    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
-  </si>
-  <si>
-    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
-  </si>
-  <si>
-    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
-  </si>
-  <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
-  </si>
-  <si>
-    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
-  </si>
-  <si>
-    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
-  </si>
-  <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
-  </si>
-  <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
-  </si>
-  <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
-  </si>
-  <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
-  </si>
-  <si>
-    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
-  </si>
-  <si>
-    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
-  </si>
-  <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
-  </si>
-  <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
-    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
-  </si>
-  <si>
-    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
-  </si>
-  <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
-    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
-  </si>
-  <si>
-    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
-  </si>
-  <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
-  </si>
-  <si>
-    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
-  </si>
-  <si>
-    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
-  </si>
-  <si>
-    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
-  </si>
-  <si>
-    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
-  </si>
-  <si>
-    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
-  </si>
-  <si>
-    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
-  </si>
-  <si>
-    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
-  </si>
-  <si>
-    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
-  </si>
-  <si>
-    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
-  </si>
-  <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
-  </si>
-  <si>
-    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
-  </si>
-  <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
-  </si>
-  <si>
-    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
-  </si>
-  <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
   </si>
   <si>
     <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
   </si>
   <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
     <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
   </si>
   <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
-  </si>
-  <si>
-    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
-  </si>
-  <si>
-    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
-  </si>
-  <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
-  </si>
-  <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
   </si>
   <si>
     <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
   </si>
   <si>
-    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
-  </si>
-  <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
-  </si>
-  <si>
-    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
-  </si>
-  <si>
-    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
-  </si>
-  <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
-  </si>
-  <si>
-    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
-  </si>
-  <si>
-    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
-  </si>
-  <si>
-    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
-  </si>
-  <si>
-    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
-  </si>
-  <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
-  </si>
-  <si>
-    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
-  </si>
-  <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
-  </si>
-  <si>
-    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
-  </si>
-  <si>
-    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
-  </si>
-  <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
   </si>
   <si>
     <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
   </si>
   <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
-  </si>
-  <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
-    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
-  </si>
-  <si>
-    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
-  </si>
-  <si>
-    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
-  </si>
-  <si>
-    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
-  </si>
-  <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
-  </si>
-  <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
-  </si>
-  <si>
-    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
-  </si>
-  <si>
-    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
-  </si>
-  <si>
-    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
-  </si>
-  <si>
-    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
-  </si>
-  <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
   </si>
   <si>
     <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
   </si>
   <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
-  </si>
-  <si>
     <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
   </si>
   <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях.</t>
-  </si>
-  <si>
-    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
-  </si>
-  <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
-    <t>Блоги</t>
-  </si>
-  <si>
     <t>Новости и СМИ</t>
   </si>
   <si>
@@ -461,6 +455,9 @@
   </si>
   <si>
     <t>Бизнес и стартапы</t>
+  </si>
+  <si>
+    <t>Криптовалюты</t>
   </si>
   <si>
     <t>Путешествия</t>
@@ -881,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -921,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -935,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -949,13 +946,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -963,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -977,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -991,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1005,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1019,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1033,13 +1030,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1047,13 +1044,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1061,13 +1058,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1075,13 +1072,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1089,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1103,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1117,13 +1114,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1131,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1145,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1159,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1173,13 +1170,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1187,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1207,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1215,13 +1212,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1229,13 +1226,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1243,13 +1240,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1257,13 +1254,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1271,13 +1268,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1285,13 +1282,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1299,13 +1296,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1313,13 +1310,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1327,13 +1324,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1341,13 +1338,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1355,13 +1352,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1369,13 +1366,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1383,13 +1380,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1397,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1411,13 +1408,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1425,13 +1422,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1439,13 +1436,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1453,13 +1450,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1467,13 +1464,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1481,13 +1478,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1495,13 +1492,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1509,13 +1506,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1523,13 +1520,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1537,13 +1534,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1551,13 +1548,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1565,13 +1562,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1579,13 +1576,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1593,13 +1590,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1607,13 +1604,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1621,13 +1618,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1635,13 +1632,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1649,13 +1646,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1663,13 +1660,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1677,13 +1674,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1691,13 +1688,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1705,13 +1702,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1719,13 +1716,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1733,13 +1730,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1747,13 +1744,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1761,13 +1758,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1775,13 +1772,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1789,13 +1786,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1803,13 +1800,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1817,13 +1814,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1831,13 +1828,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1845,13 +1842,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1859,13 +1856,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1873,13 +1870,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1887,13 +1884,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1901,13 +1898,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1915,13 +1912,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1929,13 +1926,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1943,13 +1940,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1957,13 +1954,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1971,13 +1968,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1985,13 +1982,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1999,13 +1996,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2013,13 +2010,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2027,13 +2024,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2041,13 +2038,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2055,13 +2052,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2069,13 +2066,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2083,13 +2080,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2097,13 +2094,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2111,13 +2108,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2125,13 +2122,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2139,13 +2136,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2153,13 +2150,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2167,13 +2164,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2181,13 +2178,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2195,13 +2192,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2209,13 +2206,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2223,13 +2220,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2237,13 +2234,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2251,13 +2248,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2265,13 +2262,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2279,13 +2276,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2293,13 +2290,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2307,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2321,13 +2318,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2335,13 +2332,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2349,13 +2346,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2363,13 +2360,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2377,13 +2374,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2391,13 +2388,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2405,13 +2402,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2419,13 +2416,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2433,13 +2430,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2447,13 +2444,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2461,13 +2458,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2475,13 +2472,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2489,13 +2486,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2503,13 +2500,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2517,13 +2514,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2531,13 +2528,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2545,13 +2542,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2559,13 +2556,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2573,13 +2570,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2587,13 +2584,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2601,13 +2598,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2615,13 +2612,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2629,13 +2626,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2643,13 +2640,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2657,13 +2654,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2671,13 +2668,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2685,13 +2682,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2699,13 +2696,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2713,13 +2710,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2727,13 +2724,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2741,13 +2738,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2755,13 +2752,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2769,13 +2766,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2783,13 +2780,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2797,13 +2794,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2817,7 +2814,7 @@
         <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2825,13 +2822,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2839,27 +2836,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>136</v>
-      </c>
-      <c r="C141" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
+++ b/server/src/api/INPUT_/NaturaLP_ANSWER_FOR_CHECKING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>channel_id</t>
   </si>
@@ -25,15 +25,15 @@
     <t>category</t>
   </si>
   <si>
+    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
+  </si>
+  <si>
+    <t>Tesla заново изобретает автомобилестроение» Компания хочет создавать почти всю нижнюю часть авто в виде одной детали</t>
+  </si>
+  <si>
     <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
   </si>
   <si>
-    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
-  </si>
-  <si>
-    <t>Tesla заново изобретает автомобилестроение» Компания хочет создавать почти всю нижнюю часть авто в виде одной детали</t>
-  </si>
-  <si>
     <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
   </si>
   <si>
@@ -46,24 +46,24 @@
     <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
   </si>
   <si>
+    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
+  </si>
+  <si>
+    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
+  </si>
+  <si>
+    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
+  </si>
+  <si>
     <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
   </si>
   <si>
-    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
-  </si>
-  <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
     <t>Платье, брюки, рюкзаки и самокат: что понадобится подросткам осенью</t>
   </si>
   <si>
     <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
   </si>
   <si>
-    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
-  </si>
-  <si>
     <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
   </si>
   <si>
@@ -88,10 +88,7 @@
     <t>Спорт</t>
   </si>
   <si>
-    <t>Картинки и фото</t>
-  </si>
-  <si>
-    <t>Цитаты</t>
+    <t>Мода и красота</t>
   </si>
   <si>
     <t>Шоубиз</t>
@@ -478,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -492,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -506,13 +503,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -590,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -610,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -618,13 +615,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -632,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -646,13 +643,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -666,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -680,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -694,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
